--- a/zelfstudie/Family.xlsx
+++ b/zelfstudie/Family.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Family" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,9 +56,6 @@
     <t>Ralph</t>
   </si>
   <si>
-    <t>Franciscus Daniël Rudolph</t>
-  </si>
-  <si>
     <t>Bianca</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Joris</t>
+  </si>
+  <si>
+    <t>Franciscus Daniel Rudolph</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -448,21 +448,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
